--- a/data-raw/Data-consolidation.xlsx
+++ b/data-raw/Data-consolidation.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUPINFO\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbonamy\Documents\Cours SUPINFO\4DATA\4data\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B757625-6948-4489-8B8E-1EEEE3170779}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4005" yWindow="1230" windowWidth="16440" windowHeight="10125" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4005" yWindow="1230" windowWidth="16440" windowHeight="10125" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sales Q1" sheetId="7" r:id="rId1"/>
@@ -18,12 +17,14 @@
     <sheet name="Sales Q3" sheetId="9" r:id="rId3"/>
     <sheet name="Sales Q4" sheetId="10" r:id="rId4"/>
     <sheet name="Summary of Sales" sheetId="11" r:id="rId5"/>
-    <sheet name="Lyon Store" sheetId="1" r:id="rId6"/>
-    <sheet name=" Paris Store" sheetId="2" r:id="rId7"/>
-    <sheet name="Brussels Store" sheetId="3" r:id="rId8"/>
-    <sheet name="Consolidation " sheetId="4" r:id="rId9"/>
+    <sheet name="Summary 2" sheetId="12" r:id="rId6"/>
+    <sheet name="Lyon Store" sheetId="1" r:id="rId7"/>
+    <sheet name=" Paris Store" sheetId="2" r:id="rId8"/>
+    <sheet name="Brussels Store" sheetId="3" r:id="rId9"/>
+    <sheet name="Consolidation" sheetId="13" r:id="rId10"/>
+    <sheet name="Consolidation2 " sheetId="4" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="43">
   <si>
     <t>Total</t>
   </si>
@@ -162,11 +163,20 @@
   <si>
     <t xml:space="preserve">Parapharmacy of Lyon </t>
   </si>
+  <si>
+    <t>Data-Consolidation</t>
+  </si>
+  <si>
+    <t>Somme</t>
+  </si>
+  <si>
+    <t>Moyenne</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
   </numFmts>
@@ -226,7 +236,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -248,6 +258,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE2EFDA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -804,7 +820,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -944,6 +960,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1230,11 +1248,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:F11"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1384,8 +1402,1489 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="47">
+        <v>18880</v>
+      </c>
+      <c r="D3" s="47">
+        <v>13640</v>
+      </c>
+      <c r="E3" s="47">
+        <v>11600</v>
+      </c>
+      <c r="F3" s="47">
+        <v>12800</v>
+      </c>
+      <c r="G3" s="47">
+        <v>15260</v>
+      </c>
+      <c r="H3" s="47">
+        <v>24160</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="47">
+        <v>4800</v>
+      </c>
+      <c r="D4" s="47">
+        <v>4780</v>
+      </c>
+      <c r="E4" s="47">
+        <v>6620</v>
+      </c>
+      <c r="F4" s="47">
+        <v>11110</v>
+      </c>
+      <c r="G4" s="47">
+        <v>21550</v>
+      </c>
+      <c r="H4" s="47">
+        <v>34900</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="47">
+        <v>7210</v>
+      </c>
+      <c r="D5" s="47">
+        <v>7640</v>
+      </c>
+      <c r="E5" s="47">
+        <v>8850</v>
+      </c>
+      <c r="F5" s="47">
+        <v>7230</v>
+      </c>
+      <c r="G5" s="47">
+        <v>9790</v>
+      </c>
+      <c r="H5" s="47">
+        <v>7390</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="47">
+        <v>21380</v>
+      </c>
+      <c r="D6" s="47">
+        <v>18190</v>
+      </c>
+      <c r="E6" s="47">
+        <v>14700</v>
+      </c>
+      <c r="F6" s="47">
+        <v>12600</v>
+      </c>
+      <c r="G6" s="47">
+        <v>9400</v>
+      </c>
+      <c r="H6" s="47">
+        <v>10450</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="47">
+        <v>8560</v>
+      </c>
+      <c r="D7" s="47">
+        <v>4220</v>
+      </c>
+      <c r="E7" s="47">
+        <v>4650</v>
+      </c>
+      <c r="F7" s="47">
+        <v>5480</v>
+      </c>
+      <c r="G7" s="47">
+        <v>6570</v>
+      </c>
+      <c r="H7" s="47">
+        <v>9880</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="47">
+        <v>15260</v>
+      </c>
+      <c r="D8" s="47">
+        <v>13830</v>
+      </c>
+      <c r="E8" s="47">
+        <v>15480</v>
+      </c>
+      <c r="F8" s="47">
+        <v>15750</v>
+      </c>
+      <c r="G8" s="47">
+        <v>17640</v>
+      </c>
+      <c r="H8" s="47">
+        <v>17720</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="47">
+        <v>5190</v>
+      </c>
+      <c r="D9" s="47">
+        <v>5900</v>
+      </c>
+      <c r="E9" s="47">
+        <v>6540</v>
+      </c>
+      <c r="F9" s="47">
+        <v>7250</v>
+      </c>
+      <c r="G9" s="47">
+        <v>8900</v>
+      </c>
+      <c r="H9" s="47">
+        <v>12820</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="47">
+        <v>18660</v>
+      </c>
+      <c r="D10" s="47">
+        <v>17950</v>
+      </c>
+      <c r="E10" s="47">
+        <v>12910</v>
+      </c>
+      <c r="F10" s="47">
+        <v>13170</v>
+      </c>
+      <c r="G10" s="47">
+        <v>16630</v>
+      </c>
+      <c r="H10" s="47">
+        <v>23020</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="47">
+        <v>6293.333333333333</v>
+      </c>
+      <c r="D14" s="47">
+        <v>4546.666666666667</v>
+      </c>
+      <c r="E14" s="47">
+        <v>3866.6666666666665</v>
+      </c>
+      <c r="F14" s="47">
+        <v>4266.666666666667</v>
+      </c>
+      <c r="G14" s="47">
+        <v>5086.666666666667</v>
+      </c>
+      <c r="H14" s="47">
+        <v>8053.333333333333</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="47">
+        <v>1600</v>
+      </c>
+      <c r="D15" s="47">
+        <v>1593.3333333333333</v>
+      </c>
+      <c r="E15" s="47">
+        <v>2206.6666666666665</v>
+      </c>
+      <c r="F15" s="47">
+        <v>3703.3333333333335</v>
+      </c>
+      <c r="G15" s="47">
+        <v>7183.333333333333</v>
+      </c>
+      <c r="H15" s="47">
+        <v>11633.333333333334</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="47">
+        <v>3605</v>
+      </c>
+      <c r="D16" s="47">
+        <v>3820</v>
+      </c>
+      <c r="E16" s="47">
+        <v>4425</v>
+      </c>
+      <c r="F16" s="47">
+        <v>3615</v>
+      </c>
+      <c r="G16" s="47">
+        <v>4895</v>
+      </c>
+      <c r="H16" s="47">
+        <v>3695</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="47">
+        <v>10690</v>
+      </c>
+      <c r="D17" s="47">
+        <v>9095</v>
+      </c>
+      <c r="E17" s="47">
+        <v>7350</v>
+      </c>
+      <c r="F17" s="47">
+        <v>6300</v>
+      </c>
+      <c r="G17" s="47">
+        <v>4700</v>
+      </c>
+      <c r="H17" s="47">
+        <v>5225</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="47">
+        <v>8560</v>
+      </c>
+      <c r="D18" s="47">
+        <v>4220</v>
+      </c>
+      <c r="E18" s="47">
+        <v>4650</v>
+      </c>
+      <c r="F18" s="47">
+        <v>5480</v>
+      </c>
+      <c r="G18" s="47">
+        <v>6570</v>
+      </c>
+      <c r="H18" s="47">
+        <v>9880</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="47">
+        <v>5086.666666666667</v>
+      </c>
+      <c r="D19" s="47">
+        <v>4610</v>
+      </c>
+      <c r="E19" s="47">
+        <v>5160</v>
+      </c>
+      <c r="F19" s="47">
+        <v>5250</v>
+      </c>
+      <c r="G19" s="47">
+        <v>5880</v>
+      </c>
+      <c r="H19" s="47">
+        <v>5906.666666666667</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="47">
+        <v>2595</v>
+      </c>
+      <c r="D20" s="47">
+        <v>2950</v>
+      </c>
+      <c r="E20" s="47">
+        <v>3270</v>
+      </c>
+      <c r="F20" s="47">
+        <v>3625</v>
+      </c>
+      <c r="G20" s="47">
+        <v>4450</v>
+      </c>
+      <c r="H20" s="47">
+        <v>6410</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="47">
+        <v>6220</v>
+      </c>
+      <c r="D21" s="47">
+        <v>5983.333333333333</v>
+      </c>
+      <c r="E21" s="47">
+        <v>4303.333333333333</v>
+      </c>
+      <c r="F21" s="47">
+        <v>4390</v>
+      </c>
+      <c r="G21" s="47">
+        <v>5543.333333333333</v>
+      </c>
+      <c r="H21" s="47">
+        <v>7673.333333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate function="average" leftLabels="1" topLabels="1">
+    <dataRefs count="3">
+      <dataRef ref="B4:H11" sheet=" Paris Store"/>
+      <dataRef ref="B4:H11" sheet="Brussels Store"/>
+      <dataRef ref="B4:H9" sheet="Lyon Store"/>
+    </dataRefs>
+  </dataConsolidate>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:I50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="2.85546875" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" collapsed="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="47">
+        <f>' Paris Store'!$C$5</f>
+        <v>8250</v>
+      </c>
+      <c r="E3" s="47">
+        <f>' Paris Store'!$D$5</f>
+        <v>5420</v>
+      </c>
+      <c r="F3" s="47">
+        <f>' Paris Store'!$E$5</f>
+        <v>4900</v>
+      </c>
+      <c r="G3" s="47">
+        <f>' Paris Store'!$F$5</f>
+        <v>5320</v>
+      </c>
+      <c r="H3" s="47">
+        <f>' Paris Store'!$G$5</f>
+        <v>6540</v>
+      </c>
+      <c r="I3" s="47">
+        <f>' Paris Store'!$H$5</f>
+        <v>8650</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="47">
+        <f>'Brussels Store'!$C$5</f>
+        <v>5400</v>
+      </c>
+      <c r="E4" s="47">
+        <f>'Brussels Store'!$D$5</f>
+        <v>3600</v>
+      </c>
+      <c r="F4" s="47">
+        <f>'Brussels Store'!$E$5</f>
+        <v>2500</v>
+      </c>
+      <c r="G4" s="47">
+        <f>'Brussels Store'!$F$5</f>
+        <v>2950</v>
+      </c>
+      <c r="H4" s="47">
+        <f>'Brussels Store'!$G$5</f>
+        <v>3620</v>
+      </c>
+      <c r="I4" s="47">
+        <f>'Brussels Store'!$H$5</f>
+        <v>8560</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="47">
+        <f>'Lyon Store'!$C$5</f>
+        <v>5230</v>
+      </c>
+      <c r="E5" s="47">
+        <f>'Lyon Store'!$D$5</f>
+        <v>4620</v>
+      </c>
+      <c r="F5" s="47">
+        <f>'Lyon Store'!$E$5</f>
+        <v>4200</v>
+      </c>
+      <c r="G5" s="47">
+        <f>'Lyon Store'!$F$5</f>
+        <v>4530</v>
+      </c>
+      <c r="H5" s="47">
+        <f>'Lyon Store'!$G$5</f>
+        <v>5100</v>
+      </c>
+      <c r="I5" s="47">
+        <f>'Lyon Store'!$H$5</f>
+        <v>6950</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="47">
+        <f>' Paris Store'!$C$5</f>
+        <v>8250</v>
+      </c>
+      <c r="E6" s="47">
+        <f>' Paris Store'!$D$5</f>
+        <v>5420</v>
+      </c>
+      <c r="F6" s="47">
+        <f>' Paris Store'!$E$5</f>
+        <v>4900</v>
+      </c>
+      <c r="G6" s="47">
+        <f>' Paris Store'!$F$5</f>
+        <v>5320</v>
+      </c>
+      <c r="H6" s="47">
+        <f>' Paris Store'!$G$5</f>
+        <v>6540</v>
+      </c>
+      <c r="I6" s="47">
+        <f>' Paris Store'!$H$5</f>
+        <v>8650</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="47">
+        <f>SUM(D3:D6)</f>
+        <v>27130</v>
+      </c>
+      <c r="E7" s="47">
+        <f>SUM(E3:E6)</f>
+        <v>19060</v>
+      </c>
+      <c r="F7" s="47">
+        <f>SUM(F3:F6)</f>
+        <v>16500</v>
+      </c>
+      <c r="G7" s="47">
+        <f>SUM(G3:G6)</f>
+        <v>18120</v>
+      </c>
+      <c r="H7" s="47">
+        <f>SUM(H3:H6)</f>
+        <v>21800</v>
+      </c>
+      <c r="I7" s="47">
+        <f>SUM(I3:I6)</f>
+        <v>32810</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="47">
+        <f>' Paris Store'!$C$6</f>
+        <v>1440</v>
+      </c>
+      <c r="E8" s="47">
+        <f>' Paris Store'!$D$6</f>
+        <v>1230</v>
+      </c>
+      <c r="F8" s="47">
+        <f>' Paris Store'!$E$6</f>
+        <v>1890</v>
+      </c>
+      <c r="G8" s="47">
+        <f>' Paris Store'!$F$6</f>
+        <v>3620</v>
+      </c>
+      <c r="H8" s="47">
+        <f>' Paris Store'!$G$6</f>
+        <v>6120</v>
+      </c>
+      <c r="I8" s="47">
+        <f>' Paris Store'!$H$6</f>
+        <v>11480</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="47">
+        <f>'Brussels Store'!$C$6</f>
+        <v>2100</v>
+      </c>
+      <c r="E9" s="47">
+        <f>'Brussels Store'!$D$6</f>
+        <v>2530</v>
+      </c>
+      <c r="F9" s="47">
+        <f>'Brussels Store'!$E$6</f>
+        <v>3250</v>
+      </c>
+      <c r="G9" s="47">
+        <f>'Brussels Store'!$F$6</f>
+        <v>4860</v>
+      </c>
+      <c r="H9" s="47">
+        <f>'Brussels Store'!$G$6</f>
+        <v>10590</v>
+      </c>
+      <c r="I9" s="47">
+        <f>'Brussels Store'!$H$6</f>
+        <v>13900</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="47">
+        <f>'Lyon Store'!$C$6</f>
+        <v>1260</v>
+      </c>
+      <c r="E10" s="47">
+        <f>'Lyon Store'!$D$6</f>
+        <v>1020</v>
+      </c>
+      <c r="F10" s="47">
+        <f>'Lyon Store'!$E$6</f>
+        <v>1480</v>
+      </c>
+      <c r="G10" s="47">
+        <f>'Lyon Store'!$F$6</f>
+        <v>2630</v>
+      </c>
+      <c r="H10" s="47">
+        <f>'Lyon Store'!$G$6</f>
+        <v>4840</v>
+      </c>
+      <c r="I10" s="47">
+        <f>'Lyon Store'!$H$6</f>
+        <v>9520</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="47">
+        <f>' Paris Store'!$C$6</f>
+        <v>1440</v>
+      </c>
+      <c r="E11" s="47">
+        <f>' Paris Store'!$D$6</f>
+        <v>1230</v>
+      </c>
+      <c r="F11" s="47">
+        <f>' Paris Store'!$E$6</f>
+        <v>1890</v>
+      </c>
+      <c r="G11" s="47">
+        <f>' Paris Store'!$F$6</f>
+        <v>3620</v>
+      </c>
+      <c r="H11" s="47">
+        <f>' Paris Store'!$G$6</f>
+        <v>6120</v>
+      </c>
+      <c r="I11" s="47">
+        <f>' Paris Store'!$H$6</f>
+        <v>11480</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="47">
+        <f>SUM(D8:D11)</f>
+        <v>6240</v>
+      </c>
+      <c r="E12" s="47">
+        <f>SUM(E8:E11)</f>
+        <v>6010</v>
+      </c>
+      <c r="F12" s="47">
+        <f>SUM(F8:F11)</f>
+        <v>8510</v>
+      </c>
+      <c r="G12" s="47">
+        <f>SUM(G8:G11)</f>
+        <v>14730</v>
+      </c>
+      <c r="H12" s="47">
+        <f>SUM(H8:H11)</f>
+        <v>27670</v>
+      </c>
+      <c r="I12" s="47">
+        <f>SUM(I8:I11)</f>
+        <v>46380</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="47">
+        <f>' Paris Store'!$C$7</f>
+        <v>4560</v>
+      </c>
+      <c r="E13" s="47">
+        <f>' Paris Store'!$D$7</f>
+        <v>4100</v>
+      </c>
+      <c r="F13" s="47">
+        <f>' Paris Store'!$E$7</f>
+        <v>3990</v>
+      </c>
+      <c r="G13" s="47">
+        <f>' Paris Store'!$F$7</f>
+        <v>4820</v>
+      </c>
+      <c r="H13" s="47">
+        <f>' Paris Store'!$G$7</f>
+        <v>5040</v>
+      </c>
+      <c r="I13" s="47">
+        <f>' Paris Store'!$H$7</f>
+        <v>4270</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="47">
+        <f>'Brussels Store'!$C$7</f>
+        <v>2650</v>
+      </c>
+      <c r="E14" s="47">
+        <f>'Brussels Store'!$D$7</f>
+        <v>3540</v>
+      </c>
+      <c r="F14" s="47">
+        <f>'Brussels Store'!$E$7</f>
+        <v>4860</v>
+      </c>
+      <c r="G14" s="47">
+        <f>'Brussels Store'!$F$7</f>
+        <v>2410</v>
+      </c>
+      <c r="H14" s="47">
+        <f>'Brussels Store'!$G$7</f>
+        <v>4750</v>
+      </c>
+      <c r="I14" s="47">
+        <f>'Brussels Store'!$H$7</f>
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="47">
+        <f>' Paris Store'!$C$7</f>
+        <v>4560</v>
+      </c>
+      <c r="E15" s="47">
+        <f>' Paris Store'!$D$7</f>
+        <v>4100</v>
+      </c>
+      <c r="F15" s="47">
+        <f>' Paris Store'!$E$7</f>
+        <v>3990</v>
+      </c>
+      <c r="G15" s="47">
+        <f>' Paris Store'!$F$7</f>
+        <v>4820</v>
+      </c>
+      <c r="H15" s="47">
+        <f>' Paris Store'!$G$7</f>
+        <v>5040</v>
+      </c>
+      <c r="I15" s="47">
+        <f>' Paris Store'!$H$7</f>
+        <v>4270</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="47">
+        <f>SUM(D13:D15)</f>
+        <v>11770</v>
+      </c>
+      <c r="E16" s="47">
+        <f>SUM(E13:E15)</f>
+        <v>11740</v>
+      </c>
+      <c r="F16" s="47">
+        <f>SUM(F13:F15)</f>
+        <v>12840</v>
+      </c>
+      <c r="G16" s="47">
+        <f>SUM(G13:G15)</f>
+        <v>12050</v>
+      </c>
+      <c r="H16" s="47">
+        <f>SUM(H13:H15)</f>
+        <v>14830</v>
+      </c>
+      <c r="I16" s="47">
+        <f>SUM(I13:I15)</f>
+        <v>11660</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="47">
+        <f>' Paris Store'!$C$8</f>
+        <v>12860</v>
+      </c>
+      <c r="E17" s="47">
+        <f>' Paris Store'!$D$8</f>
+        <v>10650</v>
+      </c>
+      <c r="F17" s="47">
+        <f>' Paris Store'!$E$8</f>
+        <v>10200</v>
+      </c>
+      <c r="G17" s="47">
+        <f>' Paris Store'!$F$8</f>
+        <v>8650</v>
+      </c>
+      <c r="H17" s="47">
+        <f>' Paris Store'!$G$8</f>
+        <v>5200</v>
+      </c>
+      <c r="I17" s="47">
+        <f>' Paris Store'!$H$8</f>
+        <v>4940</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="47">
+        <f>'Lyon Store'!$C$7</f>
+        <v>8520</v>
+      </c>
+      <c r="E18" s="47">
+        <f>'Lyon Store'!$D$7</f>
+        <v>7540</v>
+      </c>
+      <c r="F18" s="47">
+        <f>'Lyon Store'!$E$7</f>
+        <v>4500</v>
+      </c>
+      <c r="G18" s="47">
+        <f>'Lyon Store'!$F$7</f>
+        <v>3950</v>
+      </c>
+      <c r="H18" s="47">
+        <f>'Lyon Store'!$G$7</f>
+        <v>4200</v>
+      </c>
+      <c r="I18" s="47">
+        <f>'Lyon Store'!$H$7</f>
+        <v>5510</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="47">
+        <f>' Paris Store'!$C$8</f>
+        <v>12860</v>
+      </c>
+      <c r="E19" s="47">
+        <f>' Paris Store'!$D$8</f>
+        <v>10650</v>
+      </c>
+      <c r="F19" s="47">
+        <f>' Paris Store'!$E$8</f>
+        <v>10200</v>
+      </c>
+      <c r="G19" s="47">
+        <f>' Paris Store'!$F$8</f>
+        <v>8650</v>
+      </c>
+      <c r="H19" s="47">
+        <f>' Paris Store'!$G$8</f>
+        <v>5200</v>
+      </c>
+      <c r="I19" s="47">
+        <f>' Paris Store'!$H$8</f>
+        <v>4940</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="47">
+        <f>SUM(D17:D19)</f>
+        <v>34240</v>
+      </c>
+      <c r="E20" s="47">
+        <f>SUM(E17:E19)</f>
+        <v>28840</v>
+      </c>
+      <c r="F20" s="47">
+        <f>SUM(F17:F19)</f>
+        <v>24900</v>
+      </c>
+      <c r="G20" s="47">
+        <f>SUM(G17:G19)</f>
+        <v>21250</v>
+      </c>
+      <c r="H20" s="47">
+        <f>SUM(H17:H19)</f>
+        <v>14600</v>
+      </c>
+      <c r="I20" s="47">
+        <f>SUM(I17:I19)</f>
+        <v>15390</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="47">
+        <f>'Brussels Store'!$C$8</f>
+        <v>8560</v>
+      </c>
+      <c r="E21" s="47">
+        <f>'Brussels Store'!$D$8</f>
+        <v>4220</v>
+      </c>
+      <c r="F21" s="47">
+        <f>'Brussels Store'!$E$8</f>
+        <v>4650</v>
+      </c>
+      <c r="G21" s="47">
+        <f>'Brussels Store'!$F$8</f>
+        <v>5480</v>
+      </c>
+      <c r="H21" s="47">
+        <f>'Brussels Store'!$G$8</f>
+        <v>6570</v>
+      </c>
+      <c r="I21" s="47">
+        <f>'Brussels Store'!$H$8</f>
+        <v>9880</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="47">
+        <f>SUM(D21)</f>
+        <v>8560</v>
+      </c>
+      <c r="E22" s="47">
+        <f>SUM(E21)</f>
+        <v>4220</v>
+      </c>
+      <c r="F22" s="47">
+        <f>SUM(F21)</f>
+        <v>4650</v>
+      </c>
+      <c r="G22" s="47">
+        <f>SUM(G21)</f>
+        <v>5480</v>
+      </c>
+      <c r="H22" s="47">
+        <f>SUM(H21)</f>
+        <v>6570</v>
+      </c>
+      <c r="I22" s="47">
+        <f>SUM(I21)</f>
+        <v>9880</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="47">
+        <f>' Paris Store'!$C$9</f>
+        <v>6530</v>
+      </c>
+      <c r="E23" s="47">
+        <f>' Paris Store'!$D$9</f>
+        <v>5530</v>
+      </c>
+      <c r="F23" s="47">
+        <f>' Paris Store'!$E$9</f>
+        <v>4980</v>
+      </c>
+      <c r="G23" s="47">
+        <f>' Paris Store'!$F$9</f>
+        <v>4530</v>
+      </c>
+      <c r="H23" s="47">
+        <f>' Paris Store'!$G$9</f>
+        <v>6900</v>
+      </c>
+      <c r="I23" s="47">
+        <f>' Paris Store'!$H$9</f>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="47">
+        <f>'Brussels Store'!$C$9</f>
+        <v>4230</v>
+      </c>
+      <c r="E24" s="47">
+        <f>'Brussels Store'!$D$9</f>
+        <v>4100</v>
+      </c>
+      <c r="F24" s="47">
+        <f>'Brussels Store'!$E$9</f>
+        <v>5100</v>
+      </c>
+      <c r="G24" s="47">
+        <f>'Brussels Store'!$F$9</f>
+        <v>5620</v>
+      </c>
+      <c r="H24" s="47">
+        <f>'Brussels Store'!$G$9</f>
+        <v>5840</v>
+      </c>
+      <c r="I24" s="47">
+        <f>'Brussels Store'!$H$9</f>
+        <v>4120</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="47">
+        <f>'Lyon Store'!$C$8</f>
+        <v>4500</v>
+      </c>
+      <c r="E25" s="47">
+        <f>'Lyon Store'!$D$8</f>
+        <v>4200</v>
+      </c>
+      <c r="F25" s="47">
+        <f>'Lyon Store'!$E$8</f>
+        <v>5400</v>
+      </c>
+      <c r="G25" s="47">
+        <f>'Lyon Store'!$F$8</f>
+        <v>5600</v>
+      </c>
+      <c r="H25" s="47">
+        <f>'Lyon Store'!$G$8</f>
+        <v>4900</v>
+      </c>
+      <c r="I25" s="47">
+        <f>'Lyon Store'!$H$8</f>
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="47">
+        <f>' Paris Store'!$C$9</f>
+        <v>6530</v>
+      </c>
+      <c r="E26" s="47">
+        <f>' Paris Store'!$D$9</f>
+        <v>5530</v>
+      </c>
+      <c r="F26" s="47">
+        <f>' Paris Store'!$E$9</f>
+        <v>4980</v>
+      </c>
+      <c r="G26" s="47">
+        <f>' Paris Store'!$F$9</f>
+        <v>4530</v>
+      </c>
+      <c r="H26" s="47">
+        <f>' Paris Store'!$G$9</f>
+        <v>6900</v>
+      </c>
+      <c r="I26" s="47">
+        <f>' Paris Store'!$H$9</f>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="47">
+        <f>SUM(D23:D26)</f>
+        <v>21790</v>
+      </c>
+      <c r="E27" s="47">
+        <f>SUM(E23:E26)</f>
+        <v>19360</v>
+      </c>
+      <c r="F27" s="47">
+        <f>SUM(F23:F26)</f>
+        <v>20460</v>
+      </c>
+      <c r="G27" s="47">
+        <f>SUM(G23:G26)</f>
+        <v>20280</v>
+      </c>
+      <c r="H27" s="47">
+        <f>SUM(H23:H26)</f>
+        <v>24540</v>
+      </c>
+      <c r="I27" s="47">
+        <f>SUM(I23:I26)</f>
+        <v>25220</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="47">
+        <f>' Paris Store'!$C$10</f>
+        <v>2950</v>
+      </c>
+      <c r="E28" s="47">
+        <f>' Paris Store'!$D$10</f>
+        <v>3620</v>
+      </c>
+      <c r="F28" s="47">
+        <f>' Paris Store'!$E$10</f>
+        <v>3890</v>
+      </c>
+      <c r="G28" s="47">
+        <f>' Paris Store'!$F$10</f>
+        <v>4210</v>
+      </c>
+      <c r="H28" s="47">
+        <f>' Paris Store'!$G$10</f>
+        <v>5400</v>
+      </c>
+      <c r="I28" s="47">
+        <f>' Paris Store'!$H$10</f>
+        <v>7860</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="47">
+        <f>'Brussels Store'!$C$10</f>
+        <v>2240</v>
+      </c>
+      <c r="E29" s="47">
+        <f>'Brussels Store'!$D$10</f>
+        <v>2280</v>
+      </c>
+      <c r="F29" s="47">
+        <f>'Brussels Store'!$E$10</f>
+        <v>2650</v>
+      </c>
+      <c r="G29" s="47">
+        <f>'Brussels Store'!$F$10</f>
+        <v>3040</v>
+      </c>
+      <c r="H29" s="47">
+        <f>'Brussels Store'!$G$10</f>
+        <v>3500</v>
+      </c>
+      <c r="I29" s="47">
+        <f>'Brussels Store'!$H$10</f>
+        <v>4960</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="47">
+        <f>' Paris Store'!$C$10</f>
+        <v>2950</v>
+      </c>
+      <c r="E30" s="47">
+        <f>' Paris Store'!$D$10</f>
+        <v>3620</v>
+      </c>
+      <c r="F30" s="47">
+        <f>' Paris Store'!$E$10</f>
+        <v>3890</v>
+      </c>
+      <c r="G30" s="47">
+        <f>' Paris Store'!$F$10</f>
+        <v>4210</v>
+      </c>
+      <c r="H30" s="47">
+        <f>' Paris Store'!$G$10</f>
+        <v>5400</v>
+      </c>
+      <c r="I30" s="47">
+        <f>' Paris Store'!$H$10</f>
+        <v>7860</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="47">
+        <f>SUM(D28:D30)</f>
+        <v>8140</v>
+      </c>
+      <c r="E31" s="47">
+        <f>SUM(E28:E30)</f>
+        <v>9520</v>
+      </c>
+      <c r="F31" s="47">
+        <f>SUM(F28:F30)</f>
+        <v>10430</v>
+      </c>
+      <c r="G31" s="47">
+        <f>SUM(G28:G30)</f>
+        <v>11460</v>
+      </c>
+      <c r="H31" s="47">
+        <f>SUM(H28:H30)</f>
+        <v>14300</v>
+      </c>
+      <c r="I31" s="47">
+        <f>SUM(I28:I30)</f>
+        <v>20680</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="47">
+        <f>' Paris Store'!$C$11</f>
+        <v>7810</v>
+      </c>
+      <c r="E32" s="47">
+        <f>' Paris Store'!$D$11</f>
+        <v>8220</v>
+      </c>
+      <c r="F32" s="47">
+        <f>' Paris Store'!$E$11</f>
+        <v>4200</v>
+      </c>
+      <c r="G32" s="47">
+        <f>' Paris Store'!$F$11</f>
+        <v>4100</v>
+      </c>
+      <c r="H32" s="47">
+        <f>' Paris Store'!$G$11</f>
+        <v>5400</v>
+      </c>
+      <c r="I32" s="47">
+        <f>' Paris Store'!$H$11</f>
+        <v>9530</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="47">
+        <f>'Brussels Store'!$C$11</f>
+        <v>6950</v>
+      </c>
+      <c r="E33" s="47">
+        <f>'Brussels Store'!$D$11</f>
+        <v>5630</v>
+      </c>
+      <c r="F33" s="47">
+        <f>'Brussels Store'!$E$11</f>
+        <v>5010</v>
+      </c>
+      <c r="G33" s="47">
+        <f>'Brussels Store'!$F$11</f>
+        <v>5550</v>
+      </c>
+      <c r="H33" s="47">
+        <f>'Brussels Store'!$G$11</f>
+        <v>6980</v>
+      </c>
+      <c r="I33" s="47">
+        <f>'Brussels Store'!$H$11</f>
+        <v>8450</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="47">
+        <f>'Lyon Store'!$C$9</f>
+        <v>3900</v>
+      </c>
+      <c r="E34" s="47">
+        <f>'Lyon Store'!$D$9</f>
+        <v>4100</v>
+      </c>
+      <c r="F34" s="47">
+        <f>'Lyon Store'!$E$9</f>
+        <v>3700</v>
+      </c>
+      <c r="G34" s="47">
+        <f>'Lyon Store'!$F$9</f>
+        <v>3520</v>
+      </c>
+      <c r="H34" s="47">
+        <f>'Lyon Store'!$G$9</f>
+        <v>4250</v>
+      </c>
+      <c r="I34" s="47">
+        <f>'Lyon Store'!$H$9</f>
+        <v>5040</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="47">
+        <f>' Paris Store'!$C$11</f>
+        <v>7810</v>
+      </c>
+      <c r="E35" s="47">
+        <f>' Paris Store'!$D$11</f>
+        <v>8220</v>
+      </c>
+      <c r="F35" s="47">
+        <f>' Paris Store'!$E$11</f>
+        <v>4200</v>
+      </c>
+      <c r="G35" s="47">
+        <f>' Paris Store'!$F$11</f>
+        <v>4100</v>
+      </c>
+      <c r="H35" s="47">
+        <f>' Paris Store'!$G$11</f>
+        <v>5400</v>
+      </c>
+      <c r="I35" s="47">
+        <f>' Paris Store'!$H$11</f>
+        <v>9530</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="47">
+        <f>SUM(D32:D35)</f>
+        <v>26470</v>
+      </c>
+      <c r="E36" s="47">
+        <f>SUM(E32:E35)</f>
+        <v>26170</v>
+      </c>
+      <c r="F36" s="47">
+        <f>SUM(F32:F35)</f>
+        <v>17110</v>
+      </c>
+      <c r="G36" s="47">
+        <f>SUM(G32:G35)</f>
+        <v>17270</v>
+      </c>
+      <c r="H36" s="47">
+        <f>SUM(H32:H35)</f>
+        <v>22030</v>
+      </c>
+      <c r="I36" s="47">
+        <f>SUM(I32:I35)</f>
+        <v>32550</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" collapsed="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="2:9" collapsed="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="2:9" collapsed="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="2:9" collapsed="1" x14ac:dyDescent="0.25"/>
+    <row r="49" collapsed="1" x14ac:dyDescent="0.25"/>
+    <row r="50" collapsed="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <dataConsolidate leftLabels="1" topLabels="1" link="1">
+    <dataRefs count="4">
+      <dataRef ref="B4:H11" sheet=" Paris Store"/>
+      <dataRef ref="B4:H11" sheet="Brussels Store"/>
+      <dataRef ref="B4:H9" sheet="Lyon Store"/>
+      <dataRef ref="B4:H11" sheet=" Paris Store"/>
+    </dataRefs>
+  </dataConsolidate>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1540,11 +3039,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1695,11 +3194,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1850,11 +3349,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1886,54 +3385,214 @@
       <c r="B6" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <f>SUM('Sales Q1'!F6, 'Sales Q2'!F6, 'Sales Q3'!F6, 'Sales Q4'!F6)</f>
+        <v>200500</v>
+      </c>
+      <c r="E6" s="47">
+        <v>200500</v>
+      </c>
     </row>
     <row r="7" spans="2:6" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37">
+        <f>SUM('Sales Q1'!F7, 'Sales Q2'!F7, 'Sales Q3'!F7, 'Sales Q4'!F7)</f>
+        <v>186100</v>
+      </c>
+      <c r="E7" s="47">
+        <v>186100</v>
+      </c>
     </row>
     <row r="8" spans="2:6" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="37">
+        <f>SUM('Sales Q1'!F8, 'Sales Q2'!F8, 'Sales Q3'!F8, 'Sales Q4'!F8)</f>
+        <v>183100</v>
+      </c>
+      <c r="E8" s="47">
+        <v>183100</v>
+      </c>
     </row>
     <row r="9" spans="2:6" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="37"/>
+      <c r="C9" s="37">
+        <f>SUM('Sales Q1'!F9, 'Sales Q2'!F9, 'Sales Q3'!F9, 'Sales Q4'!F9)</f>
+        <v>211950</v>
+      </c>
+      <c r="E9" s="47">
+        <v>211950</v>
+      </c>
     </row>
     <row r="10" spans="2:6" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="37"/>
+      <c r="C10" s="37">
+        <f>SUM('Sales Q1'!F10, 'Sales Q2'!F10, 'Sales Q3'!F10, 'Sales Q4'!F10)</f>
+        <v>185200</v>
+      </c>
+      <c r="E10" s="47">
+        <v>185200</v>
+      </c>
     </row>
     <row r="11" spans="2:6" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="37"/>
+      <c r="C11" s="37">
+        <f>SUM('Sales Q1'!F11, 'Sales Q2'!F11, 'Sales Q3'!F11, 'Sales Q4'!F11)</f>
+        <v>181000</v>
+      </c>
+      <c r="E11" s="47">
+        <v>181000</v>
+      </c>
     </row>
   </sheetData>
-  <dataConsolidate/>
+  <dataConsolidate>
+    <dataRefs count="4">
+      <dataRef ref="F6:F11" r:id="rId1"/>
+      <dataRef ref="F6:F11" r:id="rId2"/>
+      <dataRef name="$B$6:$B$11;'Sales Q1'!$F$6:$F$11"/>
+      <dataRef name="$B$6:$B$11;'Sales Q2'!$F$6:$F$11"/>
+    </dataRefs>
+  </dataConsolidate>
   <mergeCells count="1">
     <mergeCell ref="B3:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="43"/>
+    </row>
+    <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="20"/>
+    </row>
+    <row r="5" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="37">
+        <f>SUM('Sales Q1'!$C6:$E6, 'Sales Q2'!$C6:$E6, 'Sales Q3'!$C6:$E6, 'Sales Q4'!$C6:$E6 )</f>
+        <v>200500</v>
+      </c>
+      <c r="E6" s="47">
+        <v>200500</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="37">
+        <f>SUM('Sales Q1'!$C7:$E7, 'Sales Q2'!$C7:$E7, 'Sales Q3'!$C7:$E7, 'Sales Q4'!$C7:$E7 )</f>
+        <v>186100</v>
+      </c>
+      <c r="E7" s="47">
+        <v>186100</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="37">
+        <f>SUM('Sales Q1'!$C8:$E8, 'Sales Q2'!$C8:$E8, 'Sales Q3'!$C8:$E8, 'Sales Q4'!$C8:$E8 )</f>
+        <v>183100</v>
+      </c>
+      <c r="E8" s="47">
+        <v>183100</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="37">
+        <f>SUM('Sales Q1'!$C9:$E9, 'Sales Q2'!$C9:$E9, 'Sales Q3'!$C9:$E9, 'Sales Q4'!$C9:$E9 )</f>
+        <v>211950</v>
+      </c>
+      <c r="E9" s="47">
+        <v>211950</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="37">
+        <f>SUM('Sales Q1'!$C10:$E10, 'Sales Q2'!$C10:$E10, 'Sales Q3'!$C10:$E10, 'Sales Q4'!$C10:$E10 )</f>
+        <v>185200</v>
+      </c>
+      <c r="E10" s="47">
+        <v>185200</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="37">
+        <f>SUM('Sales Q1'!$C11:$E11, 'Sales Q2'!$C11:$E11, 'Sales Q3'!$C11:$E11, 'Sales Q4'!$C11:$E11 )</f>
+        <v>181000</v>
+      </c>
+      <c r="E11" s="47">
+        <v>181000</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate>
+    <dataRefs count="4">
+      <dataRef ref="F6:F11" sheet="Sales Q1"/>
+      <dataRef ref="F6:F11" sheet="Sales Q2"/>
+      <dataRef ref="F6:F11" sheet="Sales Q3"/>
+      <dataRef ref="F6:F11" sheet="Sales Q4"/>
+    </dataRefs>
+  </dataConsolidate>
+  <mergeCells count="1">
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2103,8 +3762,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2324,8 +3983,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2543,39 +4202,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:A24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="3" width="11.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" collapsed="1" x14ac:dyDescent="0.25"/>
-    <row r="4" collapsed="1" x14ac:dyDescent="0.25"/>
-    <row r="5" collapsed="1" x14ac:dyDescent="0.25"/>
-    <row r="8" collapsed="1" x14ac:dyDescent="0.25"/>
-    <row r="13" collapsed="1" x14ac:dyDescent="0.25"/>
-    <row r="16" collapsed="1" x14ac:dyDescent="0.25"/>
-    <row r="17" collapsed="1" x14ac:dyDescent="0.25"/>
-    <row r="20" collapsed="1" x14ac:dyDescent="0.25"/>
-    <row r="23" collapsed="1" x14ac:dyDescent="0.25"/>
-    <row r="24" collapsed="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <dataConsolidate topLabels="1" link="1">
-    <dataRefs count="3">
-      <dataRef ref="B4:H11" sheet="Brussels Store"/>
-      <dataRef ref="B4:H9" sheet="Lyon Store"/>
-      <dataRef ref="B4:H11" sheet=" Paris Store"/>
-    </dataRefs>
-  </dataConsolidate>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>